--- a/documents/demo/데모_테이블정의서.xlsx
+++ b/documents/demo/데모_테이블정의서.xlsx
@@ -4,10 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="SERVICE_INFO" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="USER" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="MATCHING_STATUS" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="MATCHING_RECORD" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="MATCHING_MAP_RECORD" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="USER_TYPE" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="USER" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="MATCHING_STATUS" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="MATCHING_RECORD" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="MATCHING_RESERVATION_RECORD" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="MATCHING_MAP_RECORD" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="144">
   <si>
     <t xml:space="preserve"> Table 명</t>
   </si>
@@ -93,8 +95,8 @@
 (기본 이용 단위와 세트)</t>
   </si>
   <si>
-    <t>SMALLINT
-UNSIGNED</t>
+    <t>INT
+UNSIGNEDD</t>
   </si>
   <si>
     <t>EX)
@@ -102,7 +104,7 @@
 * '기본 이용 단위'와 조합</t>
   </si>
   <si>
-    <t>BASIC_UNIT</t>
+    <t>UNIT_OF_MEASURE</t>
   </si>
   <si>
     <t>기본 이용 단위
@@ -114,9 +116,8 @@
   <si>
     <t>ex)
 * '기본 이용 값'과 함께 조합해야 함
-'km' -&gt; 키로미터
-'M' -&gt; 미터
-'HOUR' -&gt; 시간</t>
+'meter' -&gt; 미터
+'seconds' -&gt; 초</t>
   </si>
   <si>
     <t>BASIC_PRICE</t>
@@ -143,21 +144,6 @@
 1, 100, 500</t>
   </si>
   <si>
-    <t>ADVANCE_UNIT</t>
-  </si>
-  <si>
-    <t>상승 단위</t>
-  </si>
-  <si>
-    <t>VARCHAR(15)</t>
-  </si>
-  <si>
-    <t>ex)
-'m' -&gt; 미터
-'KM' -&gt; 키로미터
-'HOUR' -&gt; 시간</t>
-  </si>
-  <si>
     <t>ADVANCE_PRICE</t>
   </si>
   <si>
@@ -177,19 +163,19 @@
 * 서비스에 대한 구체적인 설명이므로, 서비스 관리자와 유저 모두를 위해 상세히 서술하는 게 좋음</t>
   </si>
   <si>
-    <t>CREATED</t>
-  </si>
-  <si>
-    <t>생성일</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>UPDATED</t>
-  </si>
-  <si>
-    <t>마지막 수정일</t>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+  </si>
+  <si>
+    <t>유저 타입명</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
   </si>
   <si>
     <t>USER</t>
@@ -250,35 +236,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>유저 분류(장애/비장애 여부)</t>
-  </si>
-  <si>
-    <t>CHAR(3)</t>
-  </si>
-  <si>
-    <t>ex) 'cli': 장애인 이용자
-'spt': 서포터
-'adm': 관리자</t>
-  </si>
-  <si>
-    <t>PERMISSION_LEVEL</t>
-  </si>
-  <si>
-    <t>권한 레벨</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>ex) -1: 접속 차단
-0: 일반 유저(클라이언트,, 서포터)
-1: 일반 관리자(모니터링 직원)
-2: 최고 관리자</t>
-  </si>
-  <si>
     <t>IS_LOGIN</t>
   </si>
   <si>
@@ -291,6 +248,9 @@
     <t>가입 날짜</t>
   </si>
   <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
     <t>INTRODUCTION</t>
   </si>
   <si>
@@ -319,14 +279,15 @@
   </si>
   <si>
     <t>ex)
+'reservation' -&gt; 예약 시간이 아직 되지 않음
 'waiting' -&gt; 클라이언트가 서포터 매칭을 기다리는 중
 'cancel' -&gt; 매칭되기 전에 클라이언트가 요청 취소
 'timeout' -&gt; 시간 초과로 인한 취소(5분)
 'matched' -&gt; 매칭 성공
 'cli-exit' -&gt; 매칭은 됐지만 클라이언트가 취소
-'sur-exit' -&gt; 매칭은 됐지만 서포터가 취소
-'ing' -&gt; 서비스 제공 중
-'complete' -&gt; 서비스 정상 종료
+'spt-exit' -&gt; 매칭은 됐지만 서포터가 취소
+'doing' -&gt; 서비스 제공 중
+'finish' -&gt; 서비스 정상 종료
 'break' -&gt; 서비스 비정상 종료</t>
   </si>
   <si>
@@ -350,6 +311,12 @@
   <si>
     <t>FOREIGN KEY
 REFERENCES SERVICE_INFO(NAME) ON DELETE NO ACTION</t>
+  </si>
+  <si>
+    <t>IS_RESERVATION</t>
+  </si>
+  <si>
+    <t>시간지정(예약) 여부</t>
   </si>
   <si>
     <t>CLIENT_USER</t>
@@ -392,28 +359,29 @@
 'break' -&gt; 서비스 비정상 종료</t>
   </si>
   <si>
+    <t>CREATED</t>
+  </si>
+  <si>
     <t>매칭 정보 생성일</t>
   </si>
   <si>
-    <t>WAITING_TIME</t>
-  </si>
-  <si>
-    <t>매칭 소요시간</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>DEFAULT '00:00:00.00'</t>
-  </si>
-  <si>
-    <t>SERVICE_TIME</t>
-  </si>
-  <si>
-    <t>서비스 소요시간</t>
-  </si>
-  <si>
-    <t>CLIENT_GOLD</t>
+    <t>SERVICE_START_TIME</t>
+  </si>
+  <si>
+    <t>서비스 시작 시간</t>
+  </si>
+  <si>
+    <t>* 실제 서비스가 시작된 시간
+* 시간지정(예약)의 경우에는 서비스가 시작될 시간</t>
+  </si>
+  <si>
+    <t>SERVICE_END_TIME</t>
+  </si>
+  <si>
+    <t>서비스 종료 시간</t>
+  </si>
+  <si>
+    <t>GOLD_FROM_CLIENT</t>
   </si>
   <si>
     <t>클라이언트로부터 받은 골드 금액</t>
@@ -423,7 +391,7 @@
 * 만약 값이 0이라면 클라이언트로부터 정상적으로 비용이 입금되지 않은 것이므로 심각한 에러</t>
   </si>
   <si>
-    <t>SUPPORTER_GOLD</t>
+    <t>GOLD_TO_SUPPORTER</t>
   </si>
   <si>
     <t>서포터에게 전달된 골드 금액</t>
@@ -431,42 +399,69 @@
   <si>
     <t>ex)
 * 수수료를 제외한 실제 서포터에게 입금될 골드 금액임
-* status 값이 'complete'인데도 output_gold가 0이라면 심각한 에러
+* status 값이 'finish'인데도 supporter_gold가 0이라면 심각한 에러
 0 -&gt; 아직 서포터에게 골드가 지급되지 않음</t>
   </si>
   <si>
-    <t>MATCHING_MAP_RECORD</t>
-  </si>
-  <si>
-    <t>MatchingMapRecord</t>
-  </si>
-  <si>
-    <t>매칭 맵 아이디</t>
-  </si>
-  <si>
-    <t>매칭 기록 아이디</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MATCHING_RESERVATION_RECORD</t>
+  </si>
+  <si>
+    <t>MatchingReservationRecord</t>
+  </si>
+  <si>
+    <t>매칭  예약 정보 아이디</t>
   </si>
   <si>
     <t>FOREIGN KEY
 REFERENCES MATCHING_RECORD(ID) ON DELETE NO ACTION</t>
   </si>
   <si>
-    <t>START_COORDINATE</t>
-  </si>
-  <si>
-    <t>출발지 좌표</t>
-  </si>
-  <si>
-    <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>지도 API에서 사용할 좌표</t>
-  </si>
-  <si>
-    <t>END_COORDINATE</t>
-  </si>
-  <si>
-    <t>목적지 좌표</t>
+    <t>RESERVATION_TIME</t>
+  </si>
+  <si>
+    <t>예약 시간</t>
+  </si>
+  <si>
+    <t>MATCHING_MAP_RECORD</t>
+  </si>
+  <si>
+    <t>MatchingMapRecord</t>
+  </si>
+  <si>
+    <t>매칭 맵 아이디</t>
+  </si>
+  <si>
+    <t>매칭 기록 아이디</t>
+  </si>
+  <si>
+    <t>START_LATITUDE</t>
+  </si>
+  <si>
+    <t>출발지 위도</t>
+  </si>
+  <si>
+    <t>DECIMAL(9, 7)</t>
+  </si>
+  <si>
+    <t>지도 API에서 사용할 위도</t>
+  </si>
+  <si>
+    <t>START_RONGITUDE</t>
+  </si>
+  <si>
+    <t>출발지 경도</t>
+  </si>
+  <si>
+    <t>지도 API에서 사용할 경도</t>
+  </si>
+  <si>
+    <t>END_LATITUDE</t>
+  </si>
+  <si>
+    <t>END_RONGITUDE</t>
   </si>
   <si>
     <t>START_NAME</t>
@@ -492,10 +487,6 @@
   </si>
   <si>
     <t>거리(미터)</t>
-  </si>
-  <si>
-    <t>INT
-UNSIGNEDD</t>
   </si>
   <si>
     <t xml:space="preserve">DEFAULT 0
@@ -506,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -531,11 +522,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Gulimche"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Dotum"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -873,25 +859,25 @@
     <xf quotePrefix="1" borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,6 +905,14 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1350,7 +1344,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>17</v>
@@ -1375,14 +1369,14 @@
         <v>39</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1394,20 +1388,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1418,22 +1412,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -1443,18 +1427,1572 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.5"/>
+    <col customWidth="1" min="2" max="2" width="11.88"/>
+    <col customWidth="1" min="3" max="3" width="11.75"/>
+    <col customWidth="1" min="4" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="7.25"/>
+    <col customWidth="1" min="6" max="6" width="8.13"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="6.0"/>
+    <col customWidth="1" min="9" max="9" width="5.63"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="6.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="5.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -1466,18 +3004,10 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -2785,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -2808,7 +4338,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2826,7 +4356,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2883,13 +4413,13 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>17</v>
@@ -2898,7 +4428,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -2910,13 +4440,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>17</v>
@@ -2933,13 +4463,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
@@ -2956,20 +4486,20 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -2981,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>17</v>
@@ -3004,20 +4534,20 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="32" t="s">
-        <v>75</v>
+      <c r="G10" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -3028,22 +4558,20 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>78</v>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
@@ -3054,21 +4582,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="G12" s="19"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
@@ -3079,19 +4605,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -3101,18 +4629,10 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -3124,22 +4644,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
@@ -3299,30 +4809,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="16">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="16">
@@ -3558,8 +5050,8 @@
     <row r="224" ht="13.5" customHeight="1"/>
     <row r="225" ht="13.5" customHeight="1"/>
     <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
@@ -4326,8 +5818,14 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
@@ -4353,8 +5851,6 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
@@ -4370,7 +5866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -4398,7 +5894,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4416,7 +5912,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4473,13 +5969,13 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>17</v>
@@ -4487,8 +5983,8 @@
       <c r="F5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>93</v>
+      <c r="G5" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -5942,7 +7438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -5970,7 +7466,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5988,7 +7484,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -6045,10 +7541,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>33</v>
@@ -6060,7 +7556,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -6068,13 +7564,13 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="16">
-        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
+        <f t="shared" ref="A6:A15" si="1">SUM(A5,1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -6083,15 +7579,14 @@
       <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="F6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16">
@@ -6099,46 +7594,45 @@
         <v>3</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>104</v>
+      <c r="B8" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -6149,22 +7643,20 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>109</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -6176,19 +7668,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
@@ -6199,21 +7695,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
@@ -6223,20 +7717,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>117</v>
+      <c r="B12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -6247,22 +7741,19 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>119</v>
+      <c r="B13" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
@@ -6273,10 +7764,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>33</v>
@@ -6286,7 +7777,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -6297,16 +7788,29 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="A16" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -6320,8 +7824,8 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" ref="A17:A34" si="2">SUM(A16,1)</f>
+        <v>1</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -6335,8 +7839,8 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6350,8 +7854,8 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6365,8 +7869,8 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -6380,8 +7884,8 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6395,8 +7899,8 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6410,8 +7914,8 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6425,8 +7929,8 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6440,8 +7944,8 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6455,8 +7959,8 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -6470,8 +7974,8 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="16">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -6485,8 +7989,8 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="16">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -6500,8 +8004,8 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -6515,8 +8019,8 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="16">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -6530,8 +8034,8 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -6545,8 +8049,8 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6560,8 +8064,8 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="16">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -6575,8 +8079,8 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -7554,7 +9058,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="A2:B2"/>
@@ -7569,7 +9072,7 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
@@ -7606,7 +9109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -7633,8 +9136,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="36" t="s">
-        <v>124</v>
+      <c r="C1" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -7651,8 +9154,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="36" t="s">
-        <v>125</v>
+      <c r="C2" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -7709,10 +9212,10 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>33</v>
@@ -7724,7 +9227,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -7732,14 +9235,14 @@
     </row>
     <row r="6" ht="18.75" customHeight="1">
       <c r="A6" s="16">
-        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
+        <f t="shared" ref="A6:A15" si="1">SUM(A5,1)</f>
         <v>2</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>33</v>
@@ -7747,60 +9250,50 @@
       <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="F6" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>131</v>
+      <c r="B7" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="32" t="s">
-        <v>132</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
@@ -7810,22 +9303,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="32" t="s">
-        <v>138</v>
-      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
@@ -7835,22 +9318,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="32" t="s">
-        <v>138</v>
-      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
@@ -7860,22 +9333,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="32" t="s">
-        <v>144</v>
-      </c>
+      <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
@@ -7885,11 +9348,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="18"/>
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -7900,11 +9362,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="18"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -7917,6 +9378,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="12"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19"/>
@@ -7929,16 +9391,19 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="12"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="A16" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -7952,8 +9417,8 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" ref="A17:A34" si="2">SUM(A16,1)</f>
+        <v>1</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -7967,8 +9432,8 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7982,8 +9447,8 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7997,8 +9462,8 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -8012,8 +9477,8 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8027,8 +9492,8 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -8042,8 +9507,8 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8057,8 +9522,8 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -8072,8 +9537,8 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -8087,8 +9552,8 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -8102,8 +9567,8 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="16">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -8117,8 +9582,8 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="16">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -8132,8 +9597,8 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -8147,8 +9612,8 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="16">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -8162,8 +9627,8 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -8177,8 +9642,8 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8192,8 +9657,8 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="16">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -8207,8 +9672,8 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -9186,7 +10651,1657 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G30:J30"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.5"/>
+    <col customWidth="1" min="2" max="2" width="11.88"/>
+    <col customWidth="1" min="3" max="3" width="11.75"/>
+    <col customWidth="1" min="4" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="7.25"/>
+    <col customWidth="1" min="6" max="6" width="8.13"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="6.0"/>
+    <col customWidth="1" min="9" max="9" width="5.63"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="6.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="5.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="A2:B2"/>

--- a/documents/demo/데모_테이블정의서.xlsx
+++ b/documents/demo/데모_테이블정의서.xlsx
@@ -9,7 +9,7 @@
     <sheet state="visible" name="MATCHING_STATUS" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="MATCHING_RECORD" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="MATCHING_RESERVATION_RECORD" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="MATCHING_MAP_RECORD" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="MOVING_MATCHING_RECORD" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="148">
   <si>
     <t xml:space="preserve"> Table 명</t>
   </si>
@@ -260,10 +260,10 @@
     <t>VARCHAR(900)</t>
   </si>
   <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>보유 골드</t>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>보유 포인트</t>
   </si>
   <si>
     <t>MATCHING_STATUS</t>
@@ -335,6 +335,9 @@
     <t>서포터 아이디</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
     <t>* 서포터 아이디가 NULL이면 아직 매칭이 되지 않음</t>
   </si>
   <si>
@@ -381,20 +384,20 @@
     <t>서비스 종료 시간</t>
   </si>
   <si>
-    <t>GOLD_FROM_CLIENT</t>
-  </si>
-  <si>
-    <t>클라이언트로부터 받은 골드 금액</t>
+    <t>ESSTIMATED_POINT</t>
+  </si>
+  <si>
+    <t>예상 지불 포인트</t>
   </si>
   <si>
     <t>DEFAULT 0
 * 만약 값이 0이라면 클라이언트로부터 정상적으로 비용이 입금되지 않은 것이므로 심각한 에러</t>
   </si>
   <si>
-    <t>GOLD_TO_SUPPORTER</t>
-  </si>
-  <si>
-    <t>서포터에게 전달된 골드 금액</t>
+    <t>PAYMENT_POINT</t>
+  </si>
+  <si>
+    <t>실제 결제된 포인트</t>
   </si>
   <si>
     <t>ex)
@@ -425,13 +428,13 @@
     <t>예약 시간</t>
   </si>
   <si>
-    <t>MATCHING_MAP_RECORD</t>
-  </si>
-  <si>
-    <t>MatchingMapRecord</t>
-  </si>
-  <si>
-    <t>매칭 맵 아이디</t>
+    <t>MOVING_MATCHING_RECORD</t>
+  </si>
+  <si>
+    <t>MovingMatchingRecord</t>
+  </si>
+  <si>
+    <t>아이디</t>
   </si>
   <si>
     <t>매칭 기록 아이디</t>
@@ -461,9 +464,15 @@
     <t>END_LATITUDE</t>
   </si>
   <si>
+    <t>목적지 위도</t>
+  </si>
+  <si>
     <t>END_RONGITUDE</t>
   </si>
   <si>
+    <t>목적지 경도</t>
+  </si>
+  <si>
     <t>START_NAME</t>
   </si>
   <si>
@@ -474,7 +483,8 @@
   </si>
   <si>
     <t>유저에게 보여줄 위치 이름
-ex) '대구대 정보통신대학 1호관, 경상북도 경산시 진량읍 대구대로 201'</t>
+ex) '대구대 정보통신대학 1호관, 경상북도 경산시 진량읍 대구대로 201'
+DEFAULT ""</t>
   </si>
   <si>
     <t>END_NAME</t>
@@ -483,21 +493,26 @@
     <t>목적지 이름</t>
   </si>
   <si>
-    <t>DISTANCE</t>
-  </si>
-  <si>
-    <t>거리(미터)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT 0
-</t>
+    <t>유저에게 보여줄 위치 이름
+ex) '대구대 정보통신대학 1호관, 경상북도 경산시 진량읍 대구대로 201'
+DEFAULT """</t>
+  </si>
+  <si>
+    <t>IS_ROUNDTRIP</t>
+  </si>
+  <si>
+    <t>왕복 여부</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DEFAULT FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -522,6 +537,11 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Gulimche"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -768,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -859,26 +879,23 @@
     <xf quotePrefix="1" borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4604,10 +4621,10 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -7586,7 +7603,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16">
@@ -7610,7 +7627,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16">
@@ -7651,12 +7668,14 @@
       <c r="D9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="F9" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -7668,10 +7687,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>53</v>
@@ -7680,10 +7699,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -7695,10 +7714,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>72</v>
@@ -7718,19 +7737,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
+      <c r="E12" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -7742,16 +7761,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
+      <c r="E13" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
@@ -7763,11 +7782,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="30" t="s">
         <v>110</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>33</v>
@@ -7777,7 +7796,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -7788,11 +7807,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="30" t="s">
         <v>113</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>33</v>
@@ -7802,15 +7821,15 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>115</v>
+      <c r="A16" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9136,8 +9155,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="32" t="s">
-        <v>116</v>
+      <c r="C1" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -9154,8 +9173,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="32" t="s">
-        <v>117</v>
+      <c r="C2" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -9214,8 +9233,8 @@
       <c r="B5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>118</v>
+      <c r="C5" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>33</v>
@@ -9238,10 +9257,10 @@
         <f t="shared" ref="A6:A15" si="1">SUM(A5,1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -9250,27 +9269,27 @@
       <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>119</v>
+      <c r="F6" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -9281,7 +9300,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="31"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16">
@@ -9402,8 +9421,8 @@
       <c r="J15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>115</v>
+      <c r="A16" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9674,1657 +9693,6 @@
       <c r="A34" s="23">
         <f t="shared" si="2"/>
         <v>18</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G30:J30"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="4.5"/>
-    <col customWidth="1" min="2" max="2" width="11.88"/>
-    <col customWidth="1" min="3" max="3" width="11.75"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="7.25"/>
-    <col customWidth="1" min="6" max="6" width="8.13"/>
-    <col customWidth="1" min="7" max="7" width="6.88"/>
-    <col customWidth="1" min="8" max="8" width="6.0"/>
-    <col customWidth="1" min="9" max="9" width="5.63"/>
-    <col customWidth="1" min="10" max="10" width="7.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="6.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" ht="5.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="16">
-        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="16">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="16">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="16">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="16">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="16">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="16">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="16">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="16">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="16">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="16">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="16">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="16">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="16">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="16">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="16">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>30</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -12316,7 +10684,7 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
@@ -12351,4 +10719,1646 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.5"/>
+    <col customWidth="1" min="2" max="2" width="11.88"/>
+    <col customWidth="1" min="3" max="3" width="11.75"/>
+    <col customWidth="1" min="4" max="4" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="7.25"/>
+    <col customWidth="1" min="6" max="6" width="8.13"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="6.0"/>
+    <col customWidth="1" min="9" max="9" width="5.63"/>
+    <col customWidth="1" min="10" max="10" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="6.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="5.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="16">
+        <f t="shared" ref="A6:A34" si="1">SUM(A5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="16">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="16">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>